--- a/Documets/WebTours Профиль нагрузки_v1.2 (Новая статистика) (1).xlsx
+++ b/Documets/WebTours Профиль нагрузки_v1.2 (Новая статистика) (1).xlsx
@@ -5,22 +5,23 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Studies\8,Занятие.13.04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Studies\Documets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="4530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="4530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
-    <sheet name="Соответствие" sheetId="4" r:id="rId2"/>
-    <sheet name="SummaryReport" sheetId="5" r:id="rId3"/>
-    <sheet name="Результаты всех тестов" sheetId="2" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId2"/>
+    <sheet name="Соответствие" sheetId="4" r:id="rId3"/>
+    <sheet name="SummaryReport" sheetId="5" r:id="rId4"/>
+    <sheet name="Результаты всех тестов" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="136">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -415,12 +416,6 @@
     <t>Заполнение полей регистарции</t>
   </si>
   <si>
-    <t>Перход на страницу регистрации</t>
-  </si>
-  <si>
-    <t>Переход на следуюущий эран после регистарции</t>
-  </si>
-  <si>
     <t>Поиск билета без покупки</t>
   </si>
   <si>
@@ -599,6 +594,42 @@
   </si>
   <si>
     <t>UC6_NewUserRegistration</t>
+  </si>
+  <si>
+    <t>Переход на страницу регистрации</t>
+  </si>
+  <si>
+    <t>Переход на следуюущий эран после регистрации</t>
+  </si>
+  <si>
+    <t>Название транзакции</t>
+  </si>
+  <si>
+    <t>Профиль</t>
+  </si>
+  <si>
+    <t>Факт</t>
+  </si>
+  <si>
+    <t>Отклонение</t>
+  </si>
+  <si>
+    <t>1 207</t>
+  </si>
+  <si>
+    <t>1 555</t>
+  </si>
+  <si>
+    <t>1 052</t>
+  </si>
+  <si>
+    <t>1 050</t>
+  </si>
+  <si>
+    <t>1 890</t>
+  </si>
+  <si>
+    <t>1 213</t>
   </si>
 </sst>
 </file>
@@ -609,12 +640,28 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,6 +929,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="42">
@@ -1465,73 +1519,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1575,46 +1657,46 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1624,16 +1706,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1645,28 +1727,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1678,14 +1760,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1704,8 +1786,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="66"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="94"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="66"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="108"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1715,68 +1797,123 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="122" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="136">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48"/>
     <cellStyle name="20% — акцент1 3" xfId="68"/>
     <cellStyle name="20% — акцент1 4" xfId="82"/>
     <cellStyle name="20% — акцент1 5" xfId="96"/>
+    <cellStyle name="20% — акцент1 6" xfId="110"/>
+    <cellStyle name="20% — акцент1 7" xfId="124"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51"/>
     <cellStyle name="20% — акцент2 3" xfId="70"/>
     <cellStyle name="20% — акцент2 4" xfId="84"/>
     <cellStyle name="20% — акцент2 5" xfId="98"/>
+    <cellStyle name="20% — акцент2 6" xfId="112"/>
+    <cellStyle name="20% — акцент2 7" xfId="126"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54"/>
     <cellStyle name="20% — акцент3 3" xfId="72"/>
     <cellStyle name="20% — акцент3 4" xfId="86"/>
     <cellStyle name="20% — акцент3 5" xfId="100"/>
+    <cellStyle name="20% — акцент3 6" xfId="114"/>
+    <cellStyle name="20% — акцент3 7" xfId="128"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57"/>
     <cellStyle name="20% — акцент4 3" xfId="74"/>
     <cellStyle name="20% — акцент4 4" xfId="88"/>
     <cellStyle name="20% — акцент4 5" xfId="102"/>
+    <cellStyle name="20% — акцент4 6" xfId="116"/>
+    <cellStyle name="20% — акцент4 7" xfId="130"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60"/>
     <cellStyle name="20% — акцент5 3" xfId="76"/>
     <cellStyle name="20% — акцент5 4" xfId="90"/>
     <cellStyle name="20% — акцент5 5" xfId="104"/>
+    <cellStyle name="20% — акцент5 6" xfId="118"/>
+    <cellStyle name="20% — акцент5 7" xfId="132"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63"/>
     <cellStyle name="20% — акцент6 3" xfId="78"/>
     <cellStyle name="20% — акцент6 4" xfId="92"/>
     <cellStyle name="20% — акцент6 5" xfId="106"/>
+    <cellStyle name="20% — акцент6 6" xfId="120"/>
+    <cellStyle name="20% — акцент6 7" xfId="134"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49"/>
     <cellStyle name="40% — акцент1 3" xfId="69"/>
     <cellStyle name="40% — акцент1 4" xfId="83"/>
     <cellStyle name="40% — акцент1 5" xfId="97"/>
+    <cellStyle name="40% — акцент1 6" xfId="111"/>
+    <cellStyle name="40% — акцент1 7" xfId="125"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52"/>
     <cellStyle name="40% — акцент2 3" xfId="71"/>
     <cellStyle name="40% — акцент2 4" xfId="85"/>
     <cellStyle name="40% — акцент2 5" xfId="99"/>
+    <cellStyle name="40% — акцент2 6" xfId="113"/>
+    <cellStyle name="40% — акцент2 7" xfId="127"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55"/>
     <cellStyle name="40% — акцент3 3" xfId="73"/>
     <cellStyle name="40% — акцент3 4" xfId="87"/>
     <cellStyle name="40% — акцент3 5" xfId="101"/>
+    <cellStyle name="40% — акцент3 6" xfId="115"/>
+    <cellStyle name="40% — акцент3 7" xfId="129"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58"/>
     <cellStyle name="40% — акцент4 3" xfId="75"/>
     <cellStyle name="40% — акцент4 4" xfId="89"/>
     <cellStyle name="40% — акцент4 5" xfId="103"/>
+    <cellStyle name="40% — акцент4 6" xfId="117"/>
+    <cellStyle name="40% — акцент4 7" xfId="131"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61"/>
     <cellStyle name="40% — акцент5 3" xfId="77"/>
     <cellStyle name="40% — акцент5 4" xfId="91"/>
     <cellStyle name="40% — акцент5 5" xfId="105"/>
+    <cellStyle name="40% — акцент5 6" xfId="119"/>
+    <cellStyle name="40% — акцент5 7" xfId="133"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64"/>
     <cellStyle name="40% — акцент6 3" xfId="79"/>
     <cellStyle name="40% — акцент6 4" xfId="93"/>
     <cellStyle name="40% — акцент6 5" xfId="107"/>
+    <cellStyle name="40% — акцент6 6" xfId="121"/>
+    <cellStyle name="40% — акцент6 7" xfId="135"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
@@ -1814,6 +1951,8 @@
     <cellStyle name="Обычный 5" xfId="66"/>
     <cellStyle name="Обычный 6" xfId="80"/>
     <cellStyle name="Обычный 7" xfId="94"/>
+    <cellStyle name="Обычный 8" xfId="108"/>
+    <cellStyle name="Обычный 9" xfId="122"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
@@ -1821,6 +1960,8 @@
     <cellStyle name="Примечание 4" xfId="67"/>
     <cellStyle name="Примечание 5" xfId="81"/>
     <cellStyle name="Примечание 6" xfId="95"/>
+    <cellStyle name="Примечание 7" xfId="109"/>
+    <cellStyle name="Примечание 8" xfId="123"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -1871,7 +2012,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="168" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -1880,7 +2021,7 @@
       <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1942,7 +2083,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Сергей Кузнецов" refreshedDate="45034.852690162035" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Сергей Кузнецов" refreshedDate="45047.851559259259" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1951,7 +2092,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="transaction rq" numFmtId="0">
-      <sharedItems count="15">
+      <sharedItems count="17">
         <s v="Главная Welcome страница"/>
         <s v="Вход в систему"/>
         <s v="Переход на страницу поиска билета"/>
@@ -1961,11 +2102,13 @@
         <s v="Просмотр путевого листа"/>
         <s v="Выход из системы"/>
         <s v="Отмена бронирования "/>
-        <s v="Перход на страницу регистрации"/>
+        <s v="Переход на страницу регистрации"/>
         <s v="Заполнение полей регистарции"/>
-        <s v="Переход на следуюущий эран после регистарции"/>
+        <s v="Переход на следуюущий эран после регистрации"/>
+        <s v="Переход на следуюущий эран после регистарции" u="1"/>
         <s v="Просмотр квитанций" u="1"/>
         <s v="Перерход на страницу поиска билета" u="1"/>
+        <s v="Перход на страницу регистрации" u="1"/>
         <s v="Заполнение полей для поиска билета" u="1"/>
       </sharedItems>
     </cacheField>
@@ -1976,16 +2119,16 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="92"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="51" maxValue="90"/>
     </cacheField>
     <cacheField name="одним пользователем в минуту" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.65217391304347827" maxValue="1.1764705882352942"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.66666666666666663" maxValue="1.1764705882352942"/>
     </cacheField>
     <cacheField name="Длительность ступени" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
     <cacheField name="Итого" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.043478260869566" maxValue="58.064516129032256"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.333333333333332" maxValue="58.064516129032256"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2402,40 +2545,40 @@
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="92"/>
-    <n v="0.65217391304347827"/>
+    <n v="90"/>
+    <n v="0.66666666666666663"/>
     <n v="20"/>
-    <n v="13.043478260869566"/>
+    <n v="13.333333333333332"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="92"/>
-    <n v="0.65217391304347827"/>
+    <n v="90"/>
+    <n v="0.66666666666666663"/>
     <n v="20"/>
-    <n v="13.043478260869566"/>
+    <n v="13.333333333333332"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="92"/>
-    <n v="0.65217391304347827"/>
+    <n v="90"/>
+    <n v="0.66666666666666663"/>
     <n v="20"/>
-    <n v="13.043478260869566"/>
+    <n v="13.333333333333332"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="92"/>
-    <n v="0.65217391304347827"/>
+    <n v="90"/>
+    <n v="0.66666666666666663"/>
     <n v="20"/>
-    <n v="13.043478260869566"/>
+    <n v="13.333333333333332"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
@@ -2663,22 +2806,24 @@
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="16">
+      <items count="18">
         <item x="1"/>
         <item x="4"/>
         <item x="7"/>
         <item x="3"/>
         <item x="5"/>
         <item x="8"/>
+        <item m="1" x="13"/>
+        <item x="0"/>
+        <item m="1" x="15"/>
+        <item x="10"/>
         <item m="1" x="12"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
         <item x="2"/>
         <item x="6"/>
-        <item m="1" x="13"/>
         <item m="1" x="14"/>
+        <item m="1" x="16"/>
+        <item x="9"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2715,19 +2860,19 @@
       <x v="7"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
       <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
       <x v="12"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i t="grand">
       <x/>
@@ -3036,14 +3181,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
@@ -3060,7 +3205,7 @@
     <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3104,7 +3249,7 @@
         <v>44</v>
       </c>
       <c r="P1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q1" t="s">
         <v>45</v>
@@ -3162,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="20">
-        <v>143.92312044032198</v>
+        <v>144.21297551278576</v>
       </c>
       <c r="K2" s="15"/>
       <c r="M2" t="s">
@@ -3279,7 +3424,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="68">
         <v>1</v>
@@ -3308,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="20">
-        <v>105.3937086756161</v>
+        <v>105.68356374807988</v>
       </c>
       <c r="K4" s="15"/>
       <c r="M4" t="s">
@@ -3384,7 +3529,7 @@
       </c>
       <c r="K5" s="15"/>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N5" s="24">
         <v>2</v>
@@ -3526,7 +3671,7 @@
       </c>
       <c r="K7" s="15"/>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N7" s="24">
         <v>4</v>
@@ -3564,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="68">
         <v>1</v>
@@ -3593,7 +3738,7 @@
         <v>62</v>
       </c>
       <c r="J8" s="20">
-        <v>175.92312044032198</v>
+        <v>176.21297551278576</v>
       </c>
       <c r="K8" s="15"/>
       <c r="V8" s="67">
@@ -3632,7 +3777,7 @@
         <v>58.064516129032256</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="20">
         <v>32</v>
@@ -3670,10 +3815,10 @@
         <v>23.529411764705884</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="J10" s="20">
-        <v>32</v>
+        <v>105.68356374807988</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3707,10 +3852,10 @@
         <v>23.529411764705884</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="J11" s="20">
-        <v>32</v>
+        <v>96.59392789373814</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3718,7 +3863,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
@@ -3744,10 +3889,10 @@
         <v>23.529411764705884</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="J12" s="20">
-        <v>105.3937086756161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3781,10 +3926,10 @@
         <v>23.529411764705884</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="J13" s="20">
-        <v>96.59392789373814</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3821,7 +3966,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="20">
-        <v>989.52197484884562</v>
+        <v>990.68139513870074</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3829,7 +3974,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C15" s="30">
         <v>1</v>
@@ -3886,12 +4031,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
@@ -3917,9 +4062,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>62</v>
@@ -3948,9 +4093,9 @@
         <v>13.333333333333332</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>0</v>
@@ -3979,12 +4124,12 @@
         <v>13.333333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="68">
         <v>1</v>
@@ -4010,9 +4155,9 @@
         <v>13.333333333333332</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>5</v>
@@ -4041,9 +4186,9 @@
         <v>13.333333333333332</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>62</v>
@@ -4072,9 +4217,9 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>0</v>
@@ -4103,12 +4248,12 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="30">
         <v>1</v>
@@ -4134,9 +4279,9 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>10</v>
@@ -4165,9 +4310,9 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>11</v>
@@ -4196,9 +4341,9 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>5</v>
@@ -4227,7 +4372,7 @@
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>9</v>
       </c>
@@ -4258,7 +4403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>9</v>
       </c>
@@ -4289,12 +4434,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="30">
         <v>1</v>
@@ -4320,15 +4465,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="75"/>
     </row>
-    <row r="32" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>58</v>
@@ -4341,7 +4486,7 @@
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>55</v>
@@ -4352,8 +4497,20 @@
       <c r="I32" s="29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="K32" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>62</v>
       </c>
@@ -4362,11 +4519,11 @@
       </c>
       <c r="C33" s="28">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A33)*3</f>
-        <v>527.76936132096591</v>
+        <v>528.63892653835728</v>
       </c>
       <c r="D33" s="55">
         <f>1-B33/C33</f>
-        <v>1.4721129891890228E-2</v>
+        <v>1.6341828239790912E-2</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="52" t="str">
@@ -4375,18 +4532,32 @@
       </c>
       <c r="G33" s="58">
         <f>C33/3</f>
-        <v>175.92312044032198</v>
+        <v>176.21297551278576</v>
       </c>
       <c r="H33" s="48">
         <f>VLOOKUP(F33,SummaryReport!A:J,8,FALSE)</f>
         <v>178</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="77">
         <f t="shared" ref="I33:I44" si="34">1-G33/H33</f>
-        <v>1.1667862694820341E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1.0039463411315896E-2</v>
+      </c>
+      <c r="K33" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="80">
+        <f>G33*4</f>
+        <v>704.85190205114304</v>
+      </c>
+      <c r="M33" s="81">
+        <v>704</v>
+      </c>
+      <c r="N33" s="82">
+        <f>1-L33/M33</f>
+        <v>-1.210088140828125E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>0</v>
       </c>
@@ -4395,11 +4566,11 @@
       </c>
       <c r="C34" s="28">
         <f t="shared" ref="C34:C35" si="35">GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)*3</f>
-        <v>431.76936132096591</v>
+        <v>432.63892653835728</v>
       </c>
       <c r="D34" s="55">
         <f>1-B34/C34</f>
-        <v>2.2626342200561145E-2</v>
+        <v>2.4590775091556716E-2</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="52" t="str">
@@ -4408,31 +4579,45 @@
       </c>
       <c r="G34" s="58">
         <f t="shared" ref="G34:G44" si="36">C34/3</f>
-        <v>143.92312044032198</v>
+        <v>144.21297551278576</v>
       </c>
       <c r="H34" s="48">
         <f>VLOOKUP(F34,SummaryReport!A:J,8,FALSE)</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="34"/>
-        <v>1.4225202463548081E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>1.8959350253158092E-2</v>
+      </c>
+      <c r="K34" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" s="80">
+        <f t="shared" ref="L34:L44" si="37">G34*4</f>
+        <v>576.85190205114304</v>
+      </c>
+      <c r="M34" s="81">
+        <v>575</v>
+      </c>
+      <c r="N34" s="82">
+        <f t="shared" ref="N34:N44" si="38">1-L34/M34</f>
+        <v>-3.220699219379286E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B35" s="40">
         <v>305</v>
       </c>
       <c r="C35" s="28">
         <f t="shared" si="35"/>
-        <v>316.18112602684829</v>
+        <v>317.0506912442396</v>
       </c>
       <c r="D35" s="55">
         <f>1-B35/C35</f>
-        <v>3.5363040695537418E-2</v>
+        <v>3.8008720930232442E-2</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="52" t="str">
@@ -4441,15 +4626,32 @@
       </c>
       <c r="G35" s="58">
         <f t="shared" si="36"/>
-        <v>105.3937086756161</v>
+        <v>105.68356374807986</v>
       </c>
       <c r="H35" s="48">
         <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="I35" s="26"/>
-    </row>
-    <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="I35" s="26">
+        <f t="shared" si="34"/>
+        <v>1.2303142541309708E-2</v>
+      </c>
+      <c r="K35" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="80">
+        <f t="shared" si="37"/>
+        <v>422.73425499231945</v>
+      </c>
+      <c r="M35" s="81">
+        <v>421</v>
+      </c>
+      <c r="N35" s="82">
+        <f t="shared" si="38"/>
+        <v>-4.1193705280746507E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>10</v>
       </c>
@@ -4457,7 +4659,7 @@
         <v>282</v>
       </c>
       <c r="C36" s="28">
-        <f t="shared" ref="C36:C44" si="37">GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
+        <f t="shared" ref="C36:C44" si="39">GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
         <v>277.0506912442396</v>
       </c>
       <c r="D36" s="51">
@@ -4475,14 +4677,28 @@
       </c>
       <c r="H36" s="48">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I36" s="26">
         <f t="shared" si="34"/>
-        <v>1.7550740268653886E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>6.9867697339082158E-3</v>
+      </c>
+      <c r="K36" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="80">
+        <f t="shared" si="37"/>
+        <v>369.40092165898614</v>
+      </c>
+      <c r="M36" s="81">
+        <v>368</v>
+      </c>
+      <c r="N36" s="82">
+        <f t="shared" si="38"/>
+        <v>-3.806852334201416E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>11</v>
       </c>
@@ -4490,11 +4706,11 @@
         <v>270</v>
       </c>
       <c r="C37" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>277.0506912442396</v>
       </c>
       <c r="D37" s="51">
-        <f t="shared" ref="D37:D45" si="38">1-B37/C37</f>
+        <f t="shared" ref="D37:D45" si="40">1-B37/C37</f>
         <v>2.5449101796407025E-2</v>
       </c>
       <c r="E37" s="53"/>
@@ -4508,14 +4724,28 @@
       </c>
       <c r="H37" s="48">
         <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I37" s="26">
         <f t="shared" si="34"/>
-        <v>1.7550740268653886E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>6.9867697339082158E-3</v>
+      </c>
+      <c r="K37" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37" s="80">
+        <f t="shared" si="37"/>
+        <v>369.40092165898614</v>
+      </c>
+      <c r="M37" s="81">
+        <v>371</v>
+      </c>
+      <c r="N37" s="82">
+        <f t="shared" si="38"/>
+        <v>4.3101842075845553E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>3</v>
       </c>
@@ -4523,11 +4753,11 @@
         <v>175</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>174.19354838709677</v>
       </c>
       <c r="D38" s="51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-4.6296296296297612E-3</v>
       </c>
       <c r="E38" s="53"/>
@@ -4541,26 +4771,40 @@
       </c>
       <c r="H38" s="48">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I38" s="26">
         <f t="shared" si="34"/>
-        <v>3.2258064516129115E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>-1.1123470522802492E-3</v>
+      </c>
+      <c r="K38" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" s="80">
+        <f t="shared" si="37"/>
+        <v>232.25806451612902</v>
+      </c>
+      <c r="M38" s="81">
+        <v>233</v>
+      </c>
+      <c r="N38" s="82">
+        <f t="shared" si="38"/>
+        <v>3.1842724629655983E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="40">
         <v>280</v>
       </c>
       <c r="C39" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>289.78178368121439</v>
       </c>
       <c r="D39" s="51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3.375568870117529E-2</v>
       </c>
       <c r="E39" s="66"/>
@@ -4574,14 +4818,28 @@
       </c>
       <c r="H39" s="48">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I39" s="26">
         <f t="shared" si="34"/>
-        <v>2.430375864910983E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>-6.1867488931055536E-3</v>
+      </c>
+      <c r="K39" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="L39" s="80">
+        <f t="shared" si="37"/>
+        <v>386.3757115749525</v>
+      </c>
+      <c r="M39" s="81">
+        <v>386</v>
+      </c>
+      <c r="N39" s="82">
+        <f t="shared" si="38"/>
+        <v>-9.7334604909971034E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>12</v>
       </c>
@@ -4589,11 +4847,11 @@
         <v>73</v>
       </c>
       <c r="C40" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>70.588235294117652</v>
       </c>
       <c r="D40" s="51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-3.4166666666666679E-2</v>
       </c>
       <c r="E40" s="53"/>
@@ -4607,14 +4865,28 @@
       </c>
       <c r="H40" s="48">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I40" s="26">
         <f t="shared" si="34"/>
-        <v>1.9607843137254832E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+        <v>-2.3017902813299296E-2</v>
+      </c>
+      <c r="K40" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" s="80">
+        <f t="shared" si="37"/>
+        <v>94.117647058823536</v>
+      </c>
+      <c r="M40" s="81">
+        <v>93</v>
+      </c>
+      <c r="N40" s="82">
+        <f t="shared" si="38"/>
+        <v>-1.2017710309930596E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>5</v>
       </c>
@@ -4622,12 +4894,12 @@
         <v>326</v>
       </c>
       <c r="C41" s="28">
-        <f t="shared" si="37"/>
-        <v>316.18112602684829</v>
+        <f t="shared" si="39"/>
+        <v>317.0506912442396</v>
       </c>
       <c r="D41" s="51">
-        <f t="shared" si="38"/>
-        <v>-3.1054586010671459E-2</v>
+        <f t="shared" si="40"/>
+        <v>-2.8226744186046648E-2</v>
       </c>
       <c r="E41" s="53"/>
       <c r="F41" s="52" t="str">
@@ -4636,30 +4908,44 @@
       </c>
       <c r="G41" s="58">
         <f t="shared" si="36"/>
-        <v>105.3937086756161</v>
+        <v>105.68356374807986</v>
       </c>
       <c r="H41" s="48">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I41" s="26">
         <f t="shared" si="34"/>
-        <v>1.5012068452186056E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>2.9852476596239352E-3</v>
+      </c>
+      <c r="K41" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" s="80">
+        <f t="shared" si="37"/>
+        <v>422.73425499231945</v>
+      </c>
+      <c r="M41" s="81">
+        <v>422</v>
+      </c>
+      <c r="N41" s="82">
+        <f t="shared" si="38"/>
+        <v>-1.7399407400935374E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B42" s="40">
         <v>97</v>
       </c>
       <c r="C42" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>96</v>
       </c>
       <c r="D42" s="51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1.0416666666666741E-2</v>
       </c>
       <c r="E42" s="53"/>
@@ -4679,8 +4965,22 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="K42" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="L42" s="80">
+        <f t="shared" si="37"/>
+        <v>128</v>
+      </c>
+      <c r="M42" s="81">
+        <v>128</v>
+      </c>
+      <c r="N42" s="82">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>63</v>
       </c>
@@ -4688,11 +4988,11 @@
         <v>97</v>
       </c>
       <c r="C43" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>96</v>
       </c>
       <c r="D43" s="51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1.0416666666666741E-2</v>
       </c>
       <c r="E43" s="53"/>
@@ -4712,20 +5012,34 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="K43" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" s="80">
+        <f t="shared" si="37"/>
+        <v>128</v>
+      </c>
+      <c r="M43" s="81">
+        <v>128</v>
+      </c>
+      <c r="N43" s="82">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B44" s="40">
         <v>97</v>
       </c>
       <c r="C44" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>96</v>
       </c>
       <c r="D44" s="51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1.0416666666666741E-2</v>
       </c>
       <c r="E44" s="53"/>
@@ -4745,8 +5059,22 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K44" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="L44" s="80">
+        <f t="shared" si="37"/>
+        <v>128</v>
+      </c>
+      <c r="M44" s="81">
+        <v>128</v>
+      </c>
+      <c r="N44" s="82">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>6</v>
       </c>
@@ -4756,19 +5084,19 @@
       </c>
       <c r="C45" s="27">
         <f>SUM(C33:C44)</f>
-        <v>2968.5659245465363</v>
+        <v>2972.0441854161022</v>
       </c>
       <c r="D45" s="25">
-        <f t="shared" si="38"/>
-        <v>8.2753508498514261E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>9.4359920871014413E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C47" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
@@ -4776,27 +5104,27 @@
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" t="s">
         <v>70</v>
       </c>
-      <c r="E48" t="s">
-        <v>72</v>
-      </c>
       <c r="F48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
         <v>71</v>
       </c>
-      <c r="G48" t="s">
-        <v>73</v>
-      </c>
       <c r="H48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -4836,7 +5164,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" s="60">
         <f>150/3</f>
@@ -4871,7 +5199,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="61">
         <f>30/3</f>
@@ -4905,7 +5233,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" s="60">
         <f>20/3</f>
@@ -4939,7 +5267,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="60">
         <f>120/3</f>
@@ -4980,19 +5308,19 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
         <v>100</v>
-      </c>
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" t="s">
-        <v>102</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
         <v>54</v>
@@ -5012,7 +5340,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C58" s="20">
         <f>VLOOKUP(A58,$A$49:$H$53,6,FALSE)</f>
@@ -5034,7 +5362,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J58" s="20">
         <v>48</v>
@@ -5045,29 +5373,29 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="20">
-        <f t="shared" ref="C59:C83" si="39">VLOOKUP(A59,$A$49:$H$53,6,FALSE)</f>
+        <f t="shared" ref="C59:C83" si="41">VLOOKUP(A59,$A$49:$H$53,6,FALSE)</f>
         <v>1.9633333333333336</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D83" si="40">VLOOKUP(A59,$A$49:$H$53,3,FALSE)</f>
+        <f t="shared" ref="D59:D83" si="42">VLOOKUP(A59,$A$49:$H$53,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="E59" s="20">
-        <f t="shared" ref="E59:E83" si="41">60/D59</f>
+        <f t="shared" ref="E59:E83" si="43">60/D59</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F59">
         <v>20</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" ref="G59:G83" si="42">C59*E59*F59</f>
+        <f t="shared" ref="G59:G83" si="44">C59*E59*F59</f>
         <v>41.333333333333336</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J59" s="20">
         <v>154.66666666666669</v>
@@ -5078,29 +5406,29 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C60" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>57</v>
       </c>
       <c r="E60" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F60">
         <v>20</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J60" s="20">
         <v>48</v>
@@ -5111,29 +5439,29 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D61">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>57</v>
       </c>
       <c r="E61" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F61">
         <v>20</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I61" s="62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J61" s="20">
         <v>148</v>
@@ -5144,29 +5472,29 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C62" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>57</v>
       </c>
       <c r="E62" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F62">
         <v>20</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I62" s="62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J62" s="20">
         <v>148</v>
@@ -5177,29 +5505,29 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D63">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>57</v>
       </c>
       <c r="E63" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F63">
         <v>20</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J63" s="20">
         <v>48</v>
@@ -5210,29 +5538,29 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C64" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D64">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>57</v>
       </c>
       <c r="E64" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I64" s="62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J64" s="20">
         <v>41.333333333333336</v>
@@ -5240,32 +5568,32 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C65" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D65">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>25</v>
       </c>
       <c r="E65" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.4</v>
       </c>
       <c r="F65">
         <v>20</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J65" s="20">
         <v>50</v>
@@ -5273,32 +5601,32 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D66">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>25</v>
       </c>
       <c r="E66" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.4</v>
       </c>
       <c r="F66">
         <v>20</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="I66" s="62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J66" s="20">
         <v>10</v>
@@ -5306,28 +5634,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D67">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>25</v>
       </c>
       <c r="E67" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.4</v>
       </c>
       <c r="F67">
         <v>20</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="I67" s="17" t="s">
@@ -5339,179 +5667,179 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D68">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>115</v>
       </c>
       <c r="E68" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D69">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>115</v>
       </c>
       <c r="E69" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F69">
         <v>20</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>115</v>
       </c>
       <c r="E70" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F70">
         <v>20</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D71">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>115</v>
       </c>
       <c r="E71" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F71">
         <v>20</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D72">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>115</v>
       </c>
       <c r="E72" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F72">
         <v>20</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D73">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E73" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F73">
         <v>20</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E74" s="20">
@@ -5522,250 +5850,250 @@
         <v>20</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C75" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E75" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F75">
         <v>20</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C76" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D76">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E76" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F76">
         <v>20</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C77" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D77">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E77" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C78" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D78">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E78" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F78">
         <v>20</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C79" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D79">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="E79" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F79">
         <v>20</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C80" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="D80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="E80" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="F80">
         <v>20</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C81" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="D81">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="E81" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="F81">
         <v>20</v>
       </c>
       <c r="G81" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C82" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="D82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="E82" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
       <c r="G82" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C83" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="D83">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="E83" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="F83">
         <v>20</v>
       </c>
       <c r="G83" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>40</v>
       </c>
     </row>
@@ -5781,10 +6109,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="83">
+        <v>1903</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="86">
+        <v>0</v>
+      </c>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="83">
+        <f>'Автоматизированный расчет'!G34*10.8</f>
+        <v>1557.5001355380864</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="86">
+        <v>0</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="83">
+        <f>'Автоматизированный расчет'!G35*10.8</f>
+        <v>1141.3824884792625</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="86">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="83">
+        <f>'Автоматизированный расчет'!G36*10.8</f>
+        <v>997.38248847926263</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="86">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="83">
+        <f>'Автоматизированный расчет'!G37*10.8</f>
+        <v>997.38248847926263</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="86">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="83">
+        <f>'Автоматизированный расчет'!G38*10.8</f>
+        <v>627.09677419354841</v>
+      </c>
+      <c r="C7" s="89">
+        <v>638</v>
+      </c>
+      <c r="D7" s="86">
+        <f>1-C7/B7</f>
+        <v>-1.738683127572016E-2</v>
+      </c>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="83">
+        <f>'Автоматизированный расчет'!G39*10.8</f>
+        <v>1043.2144212523717</v>
+      </c>
+      <c r="C8" s="89">
+        <v>987</v>
+      </c>
+      <c r="D8" s="86">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="83">
+        <f>'Автоматизированный расчет'!G40*10.8</f>
+        <v>254.11764705882356</v>
+      </c>
+      <c r="C9" s="89">
+        <v>212</v>
+      </c>
+      <c r="D9" s="86">
+        <f>1-B9/C9</f>
+        <v>-0.19866814650388465</v>
+      </c>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="83">
+        <f>'Автоматизированный расчет'!G41*10.8</f>
+        <v>1141.3824884792625</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="86">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="83">
+        <f>'Автоматизированный расчет'!G42*10.8</f>
+        <v>345.6</v>
+      </c>
+      <c r="C11" s="89">
+        <v>336</v>
+      </c>
+      <c r="D11" s="86">
+        <f>1-B11/C11</f>
+        <v>-2.8571428571428692E-2</v>
+      </c>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="83">
+        <f>'Автоматизированный расчет'!G43*10.8</f>
+        <v>345.6</v>
+      </c>
+      <c r="C12" s="89">
+        <v>336</v>
+      </c>
+      <c r="D12" s="86">
+        <f>1-B12/C12</f>
+        <v>-2.8571428571428692E-2</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="83">
+        <f>'Автоматизированный расчет'!G44*10.8</f>
+        <v>345.6</v>
+      </c>
+      <c r="C13" s="89">
+        <v>335</v>
+      </c>
+      <c r="D13" s="86">
+        <f>1-B13/C13</f>
+        <v>-3.1641791044776157E-2</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5795,10 +6368,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5807,7 +6380,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5816,7 +6389,7 @@
         <v>Вход в систему</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5825,7 +6398,7 @@
         <v>Переход на страницу поиска билета</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5834,7 +6407,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5843,7 +6416,7 @@
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,7 +6425,7 @@
         <v>Оплата билета</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5861,7 +6434,7 @@
         <v>Просмотр путевого листа</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5870,7 +6443,7 @@
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5879,16 +6452,16 @@
         <v>Выход из системы</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Автоматизированный расчет'!A42</f>
-        <v>Перход на страницу регистрации</v>
+        <v>Переход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5897,16 +6470,16 @@
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Автоматизированный расчет'!A44</f>
-        <v>Переход на следуюущий эран после регистарции</v>
+        <v>Переход на следуюущий эран после регистрации</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5914,12 +6487,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5938,22 +6511,22 @@
         <v>26</v>
       </c>
       <c r="B1" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="73" t="s">
+      <c r="G1" s="73" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>84</v>
       </c>
       <c r="H1" s="73" t="s">
         <v>27</v>
@@ -5967,10 +6540,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="73">
         <v>0</v>
@@ -5979,16 +6552,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="73">
-        <v>0.86399999999999999</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="F2" s="73">
-        <v>0.19500000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="G2" s="73">
-        <v>0.81399999999999995</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="H2" s="73">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I2" s="73">
         <v>0</v>
@@ -5999,10 +6572,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="73">
         <v>0</v>
@@ -6011,13 +6584,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="73">
-        <v>0.16200000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F3" s="73">
-        <v>1.7999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G3" s="73">
-        <v>0.125</v>
+        <v>0.129</v>
       </c>
       <c r="H3" s="73">
         <v>107</v>
@@ -6031,10 +6604,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="73">
         <v>0</v>
@@ -6043,16 +6616,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="73">
-        <v>0.187</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F4" s="73">
-        <v>2.7E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G4" s="73">
-        <v>0.184</v>
+        <v>0.129</v>
       </c>
       <c r="H4" s="73">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I4" s="73">
         <v>0</v>
@@ -6063,10 +6636,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="73">
         <v>0</v>
@@ -6075,13 +6648,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="73">
-        <v>4.8000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F5" s="73">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G5" s="73">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H5" s="73">
         <v>32</v>
@@ -6095,10 +6668,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="73">
         <v>0</v>
@@ -6107,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="73">
-        <v>0.104</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F6" s="73">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G6" s="73">
-        <v>0.1</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H6" s="73">
         <v>32</v>
@@ -6127,10 +6700,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="73">
         <v>0</v>
@@ -6139,16 +6712,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="73">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F7" s="73">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F7" s="73">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G7" s="73">
-        <v>7.3999999999999996E-2</v>
-      </c>
       <c r="H7" s="73">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="73">
         <v>0</v>
@@ -6159,10 +6732,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="73">
         <v>0</v>
@@ -6171,13 +6744,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="73">
-        <v>0.187</v>
+        <v>0.129</v>
       </c>
       <c r="F8" s="73">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G8" s="73">
-        <v>0.17699999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="H8" s="73">
         <v>32</v>
@@ -6191,10 +6764,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="73">
         <v>0</v>
@@ -6203,16 +6776,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="73">
-        <v>0.186</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F9" s="73">
-        <v>2.8000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G9" s="73">
-        <v>0.152</v>
+        <v>0.128</v>
       </c>
       <c r="H9" s="73">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I9" s="73">
         <v>0</v>
@@ -6223,10 +6796,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="73">
         <v>0</v>
@@ -6235,16 +6808,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="73">
-        <v>0.108</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="F10" s="73">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G10" s="73">
-        <v>0.104</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H10" s="73">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I10" s="73">
         <v>0</v>
@@ -6255,10 +6828,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="73">
         <v>0</v>
@@ -6267,16 +6840,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="73">
-        <v>0.112</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F11" s="73">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G11" s="73">
-        <v>0.106</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H11" s="73">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="73">
         <v>0</v>
@@ -6287,10 +6860,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="73">
         <v>0</v>
@@ -6302,13 +6875,13 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F12" s="73">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G12" s="73">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="H12" s="73">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I12" s="73">
         <v>0</v>
@@ -6319,10 +6892,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="73">
         <v>0</v>
@@ -6331,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="73">
-        <v>0.251</v>
+        <v>0.111</v>
       </c>
       <c r="F13" s="73">
-        <v>0.02</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G13" s="73">
-        <v>9.4E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H13" s="73">
         <v>178</v>
@@ -6351,10 +6924,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="73">
         <v>0</v>
@@ -6363,16 +6936,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="73">
-        <v>0.13200000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F14" s="73">
-        <v>2.5999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G14" s="73">
-        <v>0.122</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H14" s="73">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="73">
         <v>0</v>
@@ -6383,10 +6956,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="73">
         <v>0</v>
@@ -6395,16 +6968,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="73">
-        <v>0.86399999999999999</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="F15" s="73">
-        <v>3.5000000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G15" s="73">
-        <v>0.84599999999999997</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="H15" s="73">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" s="73">
         <v>0</v>
@@ -6415,10 +6988,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="73">
         <v>0</v>
@@ -6427,16 +7000,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="73">
-        <v>0.56000000000000005</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F16" s="73">
-        <v>5.1999999999999998E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G16" s="73">
-        <v>0.41399999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="H16" s="73">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="73">
         <v>0</v>
@@ -6447,10 +7020,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="73">
         <v>0</v>
@@ -6459,16 +7032,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="73">
-        <v>0.78900000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F17" s="73">
-        <v>4.5999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G17" s="73">
-        <v>0.59899999999999998</v>
+        <v>0.498</v>
       </c>
       <c r="H17" s="73">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I17" s="73">
         <v>0</v>
@@ -6479,10 +7052,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="73">
         <v>0</v>
@@ -6491,13 +7064,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="73">
-        <v>0.35899999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F18" s="73">
-        <v>1.9E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G18" s="73">
-        <v>0.34300000000000003</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="H18" s="73">
         <v>15</v>
@@ -6511,10 +7084,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="73">
         <v>0</v>
@@ -6523,16 +7096,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="73">
-        <v>0.41199999999999998</v>
+        <v>0.437</v>
       </c>
       <c r="F19" s="73">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G19" s="73">
-        <v>0.40899999999999997</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="H19" s="73">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="73">
         <v>0</v>
@@ -6543,10 +7116,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="73">
         <v>0</v>
@@ -6555,13 +7128,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="73">
-        <v>0.40600000000000003</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="F20" s="73">
-        <v>0.02</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G20" s="73">
-        <v>0.39100000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="H20" s="73">
         <v>32</v>
@@ -6590,12 +7163,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documets/WebTours Профиль нагрузки_v1.2 (Новая статистика) (1).xlsx
+++ b/Documets/WebTours Профиль нагрузки_v1.2 (Новая статистика) (1).xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="4530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="4530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="6" r:id="rId2"/>
-    <sheet name="Соответствие" sheetId="4" r:id="rId3"/>
-    <sheet name="SummaryReport" sheetId="5" r:id="rId4"/>
-    <sheet name="Результаты всех тестов" sheetId="2" r:id="rId5"/>
+    <sheet name="Соответствие" sheetId="4" r:id="rId2"/>
+    <sheet name="SummaryReport" sheetId="5" r:id="rId3"/>
+    <sheet name="Результаты всех тестов" sheetId="2" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="139">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -630,6 +630,15 @@
   </si>
   <si>
     <t>1 213</t>
+  </si>
+  <si>
+    <t>Поиск</t>
+  </si>
+  <si>
+    <t>Библиотека</t>
+  </si>
+  <si>
+    <t>Рега</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1788,15 +1797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="66"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="108"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1826,6 +1826,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="122" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="122" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2012,7 +2026,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -2021,7 +2035,7 @@
       <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3181,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3820,6 +3834,19 @@
       <c r="J10" s="20">
         <v>105.68356374807988</v>
       </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="90">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <f>R2*3.6</f>
+        <v>10.8</v>
+      </c>
+      <c r="R10" s="91">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -3857,6 +3884,19 @@
       <c r="J11" s="20">
         <v>96.59392789373814</v>
       </c>
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="90">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <f>R5*3.6</f>
+        <v>7.2</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
@@ -3894,6 +3934,19 @@
       <c r="J12" s="20">
         <v>32</v>
       </c>
+      <c r="O12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" s="90">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <f>R6*3.6</f>
+        <v>3.6</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
@@ -3931,6 +3984,19 @@
       <c r="J13" s="20">
         <v>32</v>
       </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="90">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <f>R7*3.6</f>
+        <v>3.6</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
@@ -3968,6 +4034,19 @@
       <c r="J14" s="20">
         <v>990.68139513870074</v>
       </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="90">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <f>R3*3.6</f>
+        <v>3.6</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -3999,6 +4078,19 @@
         <f t="shared" ref="H15:H17" si="20">D15*F15*G15</f>
         <v>32</v>
       </c>
+      <c r="O15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="90">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <f>R4*3.6</f>
+        <v>7.2</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -4466,10 +4558,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="75"/>
+      <c r="B31" s="88"/>
     </row>
     <row r="32" spans="1:14" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
@@ -4497,16 +4589,16 @@
       <c r="I32" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K32" s="78" t="s">
+      <c r="K32" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="L32" s="78" t="s">
+      <c r="L32" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="M32" s="78" t="s">
+      <c r="M32" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="N32" s="78" t="s">
+      <c r="N32" s="75" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4538,21 +4630,21 @@
         <f>VLOOKUP(F33,SummaryReport!A:J,8,FALSE)</f>
         <v>178</v>
       </c>
-      <c r="I33" s="77">
+      <c r="I33" s="74">
         <f t="shared" ref="I33:I44" si="34">1-G33/H33</f>
         <v>1.0039463411315896E-2</v>
       </c>
-      <c r="K33" s="79" t="s">
+      <c r="K33" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="80">
+      <c r="L33" s="77">
         <f>G33*4</f>
         <v>704.85190205114304</v>
       </c>
-      <c r="M33" s="81">
+      <c r="M33" s="78">
         <v>704</v>
       </c>
-      <c r="N33" s="82">
+      <c r="N33" s="79">
         <f>1-L33/M33</f>
         <v>-1.210088140828125E-3</v>
       </c>
@@ -4589,17 +4681,17 @@
         <f t="shared" si="34"/>
         <v>1.8959350253158092E-2</v>
       </c>
-      <c r="K34" s="79" t="s">
+      <c r="K34" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="L34" s="80">
+      <c r="L34" s="77">
         <f t="shared" ref="L34:L44" si="37">G34*4</f>
         <v>576.85190205114304</v>
       </c>
-      <c r="M34" s="81">
+      <c r="M34" s="78">
         <v>575</v>
       </c>
-      <c r="N34" s="82">
+      <c r="N34" s="79">
         <f t="shared" ref="N34:N44" si="38">1-L34/M34</f>
         <v>-3.220699219379286E-3</v>
       </c>
@@ -4636,17 +4728,17 @@
         <f t="shared" si="34"/>
         <v>1.2303142541309708E-2</v>
       </c>
-      <c r="K35" s="79" t="s">
+      <c r="K35" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="L35" s="80">
+      <c r="L35" s="77">
         <f t="shared" si="37"/>
         <v>422.73425499231945</v>
       </c>
-      <c r="M35" s="81">
+      <c r="M35" s="78">
         <v>421</v>
       </c>
-      <c r="N35" s="82">
+      <c r="N35" s="79">
         <f t="shared" si="38"/>
         <v>-4.1193705280746507E-3</v>
       </c>
@@ -4683,17 +4775,17 @@
         <f t="shared" si="34"/>
         <v>6.9867697339082158E-3</v>
       </c>
-      <c r="K36" s="79" t="s">
+      <c r="K36" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="L36" s="80">
+      <c r="L36" s="77">
         <f t="shared" si="37"/>
         <v>369.40092165898614</v>
       </c>
-      <c r="M36" s="81">
+      <c r="M36" s="78">
         <v>368</v>
       </c>
-      <c r="N36" s="82">
+      <c r="N36" s="79">
         <f t="shared" si="38"/>
         <v>-3.806852334201416E-3</v>
       </c>
@@ -4730,17 +4822,17 @@
         <f t="shared" si="34"/>
         <v>6.9867697339082158E-3</v>
       </c>
-      <c r="K37" s="79" t="s">
+      <c r="K37" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="L37" s="80">
+      <c r="L37" s="77">
         <f t="shared" si="37"/>
         <v>369.40092165898614</v>
       </c>
-      <c r="M37" s="81">
+      <c r="M37" s="78">
         <v>371</v>
       </c>
-      <c r="N37" s="82">
+      <c r="N37" s="79">
         <f t="shared" si="38"/>
         <v>4.3101842075845553E-3</v>
       </c>
@@ -4777,22 +4869,22 @@
         <f t="shared" si="34"/>
         <v>-1.1123470522802492E-3</v>
       </c>
-      <c r="K38" s="79" t="s">
+      <c r="K38" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="L38" s="80">
+      <c r="L38" s="77">
         <f t="shared" si="37"/>
         <v>232.25806451612902</v>
       </c>
-      <c r="M38" s="81">
+      <c r="M38" s="78">
         <v>233</v>
       </c>
-      <c r="N38" s="82">
+      <c r="N38" s="79">
         <f t="shared" si="38"/>
         <v>3.1842724629655983E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>104</v>
       </c>
@@ -4824,17 +4916,17 @@
         <f t="shared" si="34"/>
         <v>-6.1867488931055536E-3</v>
       </c>
-      <c r="K39" s="79" t="s">
+      <c r="K39" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="L39" s="80">
+      <c r="L39" s="77">
         <f t="shared" si="37"/>
         <v>386.3757115749525</v>
       </c>
-      <c r="M39" s="81">
+      <c r="M39" s="78">
         <v>386</v>
       </c>
-      <c r="N39" s="82">
+      <c r="N39" s="79">
         <f t="shared" si="38"/>
         <v>-9.7334604909971034E-4</v>
       </c>
@@ -4871,17 +4963,17 @@
         <f t="shared" si="34"/>
         <v>-2.3017902813299296E-2</v>
       </c>
-      <c r="K40" s="79" t="s">
+      <c r="K40" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="L40" s="80">
+      <c r="L40" s="77">
         <f t="shared" si="37"/>
         <v>94.117647058823536</v>
       </c>
-      <c r="M40" s="81">
+      <c r="M40" s="78">
         <v>93</v>
       </c>
-      <c r="N40" s="82">
+      <c r="N40" s="79">
         <f t="shared" si="38"/>
         <v>-1.2017710309930596E-2</v>
       </c>
@@ -4918,17 +5010,17 @@
         <f t="shared" si="34"/>
         <v>2.9852476596239352E-3</v>
       </c>
-      <c r="K41" s="79" t="s">
+      <c r="K41" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="L41" s="80">
+      <c r="L41" s="77">
         <f t="shared" si="37"/>
         <v>422.73425499231945</v>
       </c>
-      <c r="M41" s="81">
+      <c r="M41" s="78">
         <v>422</v>
       </c>
-      <c r="N41" s="82">
+      <c r="N41" s="79">
         <f t="shared" si="38"/>
         <v>-1.7399407400935374E-3</v>
       </c>
@@ -4965,17 +5057,17 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K42" s="79" t="s">
+      <c r="K42" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="L42" s="80">
+      <c r="L42" s="77">
         <f t="shared" si="37"/>
         <v>128</v>
       </c>
-      <c r="M42" s="81">
+      <c r="M42" s="78">
         <v>128</v>
       </c>
-      <c r="N42" s="82">
+      <c r="N42" s="79">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -5012,17 +5104,17 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K43" s="79" t="s">
+      <c r="K43" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="L43" s="80">
+      <c r="L43" s="77">
         <f t="shared" si="37"/>
         <v>128</v>
       </c>
-      <c r="M43" s="81">
+      <c r="M43" s="78">
         <v>128</v>
       </c>
-      <c r="N43" s="82">
+      <c r="N43" s="79">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -5059,17 +5151,17 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K44" s="79" t="s">
+      <c r="K44" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="L44" s="80">
+      <c r="L44" s="77">
         <f t="shared" si="37"/>
         <v>128</v>
       </c>
-      <c r="M44" s="81">
+      <c r="M44" s="78">
         <v>128</v>
       </c>
-      <c r="N44" s="82">
+      <c r="N44" s="79">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -6108,251 +6200,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="83">
-        <v>1903</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="86">
-        <v>0</v>
-      </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="83">
-        <f>'Автоматизированный расчет'!G34*10.8</f>
-        <v>1557.5001355380864</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="86">
-        <v>0</v>
-      </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="83">
-        <f>'Автоматизированный расчет'!G35*10.8</f>
-        <v>1141.3824884792625</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="86">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="83">
-        <f>'Автоматизированный расчет'!G36*10.8</f>
-        <v>997.38248847926263</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="86">
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="83">
-        <f>'Автоматизированный расчет'!G37*10.8</f>
-        <v>997.38248847926263</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="86">
-        <v>0.05</v>
-      </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="83">
-        <f>'Автоматизированный расчет'!G38*10.8</f>
-        <v>627.09677419354841</v>
-      </c>
-      <c r="C7" s="89">
-        <v>638</v>
-      </c>
-      <c r="D7" s="86">
-        <f>1-C7/B7</f>
-        <v>-1.738683127572016E-2</v>
-      </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="83">
-        <f>'Автоматизированный расчет'!G39*10.8</f>
-        <v>1043.2144212523717</v>
-      </c>
-      <c r="C8" s="89">
-        <v>987</v>
-      </c>
-      <c r="D8" s="86">
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="83">
-        <f>'Автоматизированный расчет'!G40*10.8</f>
-        <v>254.11764705882356</v>
-      </c>
-      <c r="C9" s="89">
-        <v>212</v>
-      </c>
-      <c r="D9" s="86">
-        <f>1-B9/C9</f>
-        <v>-0.19866814650388465</v>
-      </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="83">
-        <f>'Автоматизированный расчет'!G41*10.8</f>
-        <v>1141.3824884792625</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="86">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="83">
-        <f>'Автоматизированный расчет'!G42*10.8</f>
-        <v>345.6</v>
-      </c>
-      <c r="C11" s="89">
-        <v>336</v>
-      </c>
-      <c r="D11" s="86">
-        <f>1-B11/C11</f>
-        <v>-2.8571428571428692E-2</v>
-      </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="83">
-        <f>'Автоматизированный расчет'!G43*10.8</f>
-        <v>345.6</v>
-      </c>
-      <c r="C12" s="89">
-        <v>336</v>
-      </c>
-      <c r="D12" s="86">
-        <f>1-B12/C12</f>
-        <v>-2.8571428571428692E-2</v>
-      </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="83">
-        <f>'Автоматизированный расчет'!G44*10.8</f>
-        <v>345.6</v>
-      </c>
-      <c r="C13" s="89">
-        <v>335</v>
-      </c>
-      <c r="D13" s="86">
-        <f>1-B13/C13</f>
-        <v>-3.1641791044776157E-2</v>
-      </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -6487,7 +6334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -7163,12 +7010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7190,13 +7037,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -7349,13 +7196,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -7515,13 +7362,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
@@ -7778,4 +7625,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="80">
+        <v>1903</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="83">
+        <v>0</v>
+      </c>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="80">
+        <f>'Автоматизированный расчет'!G34*10.8</f>
+        <v>1557.5001355380864</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="83">
+        <v>0</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="80">
+        <f>'Автоматизированный расчет'!G35*10.8</f>
+        <v>1141.3824884792625</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="80">
+        <f>'Автоматизированный расчет'!G36*10.8</f>
+        <v>997.38248847926263</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="80">
+        <f>'Автоматизированный расчет'!G37*10.8</f>
+        <v>997.38248847926263</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="80">
+        <f>'Автоматизированный расчет'!G38*10.8</f>
+        <v>627.09677419354841</v>
+      </c>
+      <c r="C7" s="86">
+        <v>638</v>
+      </c>
+      <c r="D7" s="83">
+        <f>1-C7/B7</f>
+        <v>-1.738683127572016E-2</v>
+      </c>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="80">
+        <f>'Автоматизированный расчет'!G39*10.8</f>
+        <v>1043.2144212523717</v>
+      </c>
+      <c r="C8" s="86">
+        <v>987</v>
+      </c>
+      <c r="D8" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="80">
+        <f>'Автоматизированный расчет'!G40*10.8</f>
+        <v>254.11764705882356</v>
+      </c>
+      <c r="C9" s="86">
+        <v>212</v>
+      </c>
+      <c r="D9" s="83">
+        <f>1-B9/C9</f>
+        <v>-0.19866814650388465</v>
+      </c>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="80">
+        <f>'Автоматизированный расчет'!G41*10.8</f>
+        <v>1141.3824884792625</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="80">
+        <f>'Автоматизированный расчет'!G42*10.8</f>
+        <v>345.6</v>
+      </c>
+      <c r="C11" s="86">
+        <v>336</v>
+      </c>
+      <c r="D11" s="83">
+        <f>1-B11/C11</f>
+        <v>-2.8571428571428692E-2</v>
+      </c>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="80">
+        <f>'Автоматизированный расчет'!G43*10.8</f>
+        <v>345.6</v>
+      </c>
+      <c r="C12" s="86">
+        <v>336</v>
+      </c>
+      <c r="D12" s="83">
+        <f>1-B12/C12</f>
+        <v>-2.8571428571428692E-2</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="80">
+        <f>'Автоматизированный расчет'!G44*10.8</f>
+        <v>345.6</v>
+      </c>
+      <c r="C13" s="86">
+        <v>335</v>
+      </c>
+      <c r="D13" s="83">
+        <f>1-B13/C13</f>
+        <v>-3.1641791044776157E-2</v>
+      </c>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="92"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="92"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="92"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="92"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="92"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documets/WebTours Профиль нагрузки_v1.2 (Новая статистика) (1).xlsx
+++ b/Documets/WebTours Профиль нагрузки_v1.2 (Новая статистика) (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="4530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="4530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -1828,6 +1828,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="122" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="122" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1835,11 +1840,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="122" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3195,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:R15"/>
+    <sheetView topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,14 +3837,14 @@
       <c r="O10" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="90">
+      <c r="P10" s="87">
         <v>11</v>
       </c>
       <c r="Q10">
         <f>R2*3.6</f>
         <v>10.8</v>
       </c>
-      <c r="R10" s="91">
+      <c r="R10" s="88">
         <v>11</v>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       <c r="O11" t="s">
         <v>136</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="87">
         <v>8</v>
       </c>
       <c r="Q11">
@@ -3937,7 +3937,7 @@
       <c r="O12" t="s">
         <v>137</v>
       </c>
-      <c r="P12" s="90">
+      <c r="P12" s="87">
         <v>4</v>
       </c>
       <c r="Q12">
@@ -3987,7 +3987,7 @@
       <c r="O13" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="87">
         <v>3</v>
       </c>
       <c r="Q13">
@@ -4037,7 +4037,7 @@
       <c r="O14" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="87">
         <v>3</v>
       </c>
       <c r="Q14">
@@ -4081,7 +4081,7 @@
       <c r="O15" t="s">
         <v>138</v>
       </c>
-      <c r="P15" s="90">
+      <c r="P15" s="87">
         <v>7</v>
       </c>
       <c r="Q15">
@@ -4558,10 +4558,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="88"/>
+      <c r="B31" s="91"/>
     </row>
     <row r="32" spans="1:14" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
@@ -6203,7 +6203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
@@ -7014,7 +7014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -7037,13 +7037,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -7196,13 +7196,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -7362,13 +7362,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="89" t="s">
+      <c r="E35" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
@@ -7632,7 +7632,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7868,19 +7868,19 @@
       <c r="H13" s="85"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="92"/>
+      <c r="C16" s="89"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="92"/>
+      <c r="C17" s="89"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="92"/>
+      <c r="C18" s="89"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="92"/>
+      <c r="C19" s="89"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="92"/>
+      <c r="C20" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
